--- a/pt17单video single frame 的mAP.xlsx
+++ b/pt17单video single frame 的mAP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_\D\posetrack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_\D\posetrack\nise_embedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3959B40-04DC-4B25-BF8D-0511995B0FFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77529E88-3114-4FAC-A52A-26ACEBB20D05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2871,7 +2871,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2912,950 +2912,943 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>34.6</v>
+        <v>98.7</v>
       </c>
       <c r="F2">
-        <v>37.4</v>
+        <v>96.6</v>
       </c>
       <c r="G2">
-        <v>17.899999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="H2">
-        <v>12.9</v>
+        <v>89.3</v>
       </c>
       <c r="I2">
-        <v>25.2</v>
+        <v>98.4</v>
       </c>
       <c r="J2">
-        <v>26.7</v>
+        <v>94.5</v>
       </c>
       <c r="K2">
-        <v>14.4</v>
+        <v>95.5</v>
       </c>
       <c r="L2">
-        <v>24.9</v>
+        <v>95.5</v>
       </c>
       <c r="M2">
-        <v>45.2</v>
+        <v>96.8</v>
       </c>
       <c r="N2">
         <f>M2-L2</f>
-        <v>20.300000000000004</v>
-      </c>
-      <c r="O2" t="s">
-        <v>172</v>
-      </c>
+        <v>1.2999999999999972</v>
+      </c>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>85.1</v>
+        <v>96.1</v>
       </c>
       <c r="F3">
-        <v>85.2</v>
+        <v>94.1</v>
       </c>
       <c r="G3">
-        <v>84.3</v>
+        <v>93</v>
       </c>
       <c r="H3">
-        <v>77.2</v>
+        <v>85.4</v>
       </c>
       <c r="I3">
-        <v>68.7</v>
+        <v>92.5</v>
       </c>
       <c r="J3">
-        <v>45.3</v>
+        <v>93.9</v>
       </c>
       <c r="K3">
-        <v>49.1</v>
+        <v>89.4</v>
       </c>
       <c r="L3">
-        <v>71.7</v>
+        <v>92.3</v>
       </c>
       <c r="M3">
-        <v>77.2</v>
+        <v>91.8</v>
       </c>
       <c r="N3">
         <f>M3-L3</f>
-        <v>5.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>99.5</v>
+        <v>87.2</v>
       </c>
       <c r="F4">
-        <v>99.5</v>
+        <v>91.5</v>
       </c>
       <c r="G4">
-        <v>98.3</v>
+        <v>82.9</v>
       </c>
       <c r="H4">
-        <v>95.3</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="I4">
-        <v>71.7</v>
+        <v>91.1</v>
       </c>
       <c r="J4">
-        <v>16.899999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>90.4</v>
       </c>
       <c r="L4">
-        <v>70.8</v>
+        <v>87.3</v>
       </c>
       <c r="M4">
-        <v>72.5</v>
+        <v>89.3</v>
       </c>
       <c r="N4">
         <f>M4-L4</f>
-        <v>1.7000000000000028</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>93.6</v>
+        <v>90.8</v>
       </c>
       <c r="F5">
-        <v>82.8</v>
+        <v>93</v>
       </c>
       <c r="G5">
-        <v>77.400000000000006</v>
+        <v>84.2</v>
       </c>
       <c r="H5">
-        <v>40.700000000000003</v>
+        <v>78</v>
       </c>
       <c r="I5">
-        <v>78.3</v>
+        <v>93.9</v>
       </c>
       <c r="J5">
-        <v>75.5</v>
+        <v>79.7</v>
       </c>
       <c r="K5">
-        <v>63.7</v>
+        <v>79.8</v>
       </c>
       <c r="L5">
-        <v>74.5</v>
+        <v>86</v>
       </c>
       <c r="M5">
-        <v>76.7</v>
+        <v>83.2</v>
       </c>
       <c r="N5">
         <f>M5-L5</f>
-        <v>2.2000000000000028</v>
+        <v>-2.7999999999999972</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>60.5</v>
+        <v>83.4</v>
       </c>
       <c r="F6">
-        <v>53.8</v>
+        <v>82.8</v>
       </c>
       <c r="G6">
-        <v>31.8</v>
+        <v>85</v>
       </c>
       <c r="H6">
-        <v>16.899999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="I6">
-        <v>54.7</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="J6">
-        <v>36.299999999999997</v>
+        <v>86.3</v>
       </c>
       <c r="K6">
-        <v>17.399999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="L6">
-        <v>40.200000000000003</v>
+        <v>82.9</v>
       </c>
       <c r="M6">
-        <v>48.2</v>
+        <v>86.6</v>
       </c>
       <c r="N6">
         <f>M6-L6</f>
-        <v>8</v>
+        <v>3.6999999999999886</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>95</v>
+        <v>91.9</v>
       </c>
       <c r="F7">
-        <v>86.6</v>
+        <v>89.3</v>
       </c>
       <c r="G7">
-        <v>60.6</v>
+        <v>87.5</v>
       </c>
       <c r="H7">
-        <v>38.9</v>
+        <v>81.8</v>
       </c>
       <c r="I7">
-        <v>72.599999999999994</v>
+        <v>82.8</v>
       </c>
       <c r="J7">
-        <v>48.9</v>
+        <v>78.2</v>
       </c>
       <c r="K7">
-        <v>42</v>
+        <v>62.8</v>
       </c>
       <c r="L7">
-        <v>65.599999999999994</v>
+        <v>82.7</v>
       </c>
       <c r="M7">
-        <v>70.400000000000006</v>
+        <v>88.3</v>
       </c>
       <c r="N7">
         <f>M7-L7</f>
-        <v>4.8000000000000114</v>
+        <v>5.5999999999999943</v>
       </c>
       <c r="O7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>90.8</v>
+        <v>93.4</v>
       </c>
       <c r="F8">
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="G8">
-        <v>84.2</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="H8">
-        <v>78</v>
+        <v>49.3</v>
       </c>
       <c r="I8">
-        <v>93.9</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="J8">
-        <v>79.7</v>
+        <v>85.3</v>
       </c>
       <c r="K8">
-        <v>79.8</v>
+        <v>83.5</v>
       </c>
       <c r="L8">
-        <v>86</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="M8">
-        <v>83.2</v>
+        <v>84.1</v>
       </c>
       <c r="N8">
         <f>M8-L8</f>
-        <v>-2.7999999999999972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>98.7</v>
+        <v>86.7</v>
       </c>
       <c r="F9">
-        <v>96.6</v>
+        <v>87.8</v>
       </c>
       <c r="G9">
-        <v>94.2</v>
+        <v>84.7</v>
       </c>
       <c r="H9">
-        <v>89.3</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="I9">
-        <v>98.4</v>
+        <v>89.2</v>
       </c>
       <c r="J9">
-        <v>94.5</v>
+        <v>78.7</v>
       </c>
       <c r="K9">
-        <v>95.5</v>
+        <v>56.8</v>
       </c>
       <c r="L9">
-        <v>95.5</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="M9">
-        <v>96.8</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="N9">
         <f>M9-L9</f>
-        <v>1.2999999999999972</v>
-      </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>86.7</v>
-      </c>
-      <c r="F10">
-        <v>87.8</v>
-      </c>
-      <c r="G10">
-        <v>84.7</v>
-      </c>
-      <c r="H10">
+        <v>-3.1999999999999886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>84.4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>92.3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>85.7</v>
+      </c>
+      <c r="H10" s="3">
+        <v>52.8</v>
+      </c>
+      <c r="I10" s="3">
+        <v>85.8</v>
+      </c>
+      <c r="J10" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="K10" s="3">
         <v>77.400000000000006</v>
       </c>
-      <c r="I10">
-        <v>89.2</v>
-      </c>
-      <c r="J10">
-        <v>78.7</v>
-      </c>
-      <c r="K10">
-        <v>56.8</v>
-      </c>
-      <c r="L10">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="M10">
-        <v>77.400000000000006</v>
+      <c r="L10" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="M10" s="3">
+        <v>82.4</v>
       </c>
       <c r="N10">
         <f>M10-L10</f>
-        <v>-3.1999999999999886</v>
+        <v>2.3000000000000114</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>80.8</v>
+        <v>87.4</v>
       </c>
       <c r="F11">
-        <v>83.3</v>
+        <v>82.5</v>
       </c>
       <c r="G11">
-        <v>76.5</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="H11">
-        <v>61.5</v>
+        <v>78.2</v>
       </c>
       <c r="I11">
-        <v>73.599999999999994</v>
+        <v>80.3</v>
       </c>
       <c r="J11">
-        <v>69.8</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="K11">
-        <v>59.3</v>
+        <v>84.9</v>
       </c>
       <c r="L11">
-        <v>72.7</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="M11">
-        <v>75</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="N11">
         <f>M11-L11</f>
-        <v>2.2999999999999972</v>
+        <v>0.80000000000001137</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
-        <v>50</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>67.8</v>
-      </c>
-      <c r="F12" s="3">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="G12" s="3">
-        <v>51.7</v>
-      </c>
-      <c r="H12" s="3">
-        <v>50.4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>64</v>
-      </c>
-      <c r="J12" s="3">
-        <v>66.2</v>
-      </c>
-      <c r="K12" s="3">
-        <v>60</v>
-      </c>
-      <c r="L12" s="3">
-        <v>61.8</v>
-      </c>
-      <c r="M12" s="3">
-        <v>68.400000000000006</v>
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>84.6</v>
+      </c>
+      <c r="F12">
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>79.2</v>
+      </c>
+      <c r="H12">
+        <v>72.8</v>
+      </c>
+      <c r="I12">
+        <v>86.9</v>
+      </c>
+      <c r="J12">
+        <v>77.8</v>
+      </c>
+      <c r="K12">
+        <v>81</v>
+      </c>
+      <c r="L12">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="M12">
+        <v>95.7</v>
       </c>
       <c r="N12">
         <f>M12-L12</f>
-        <v>6.6000000000000085</v>
-      </c>
-      <c r="O12"/>
+        <v>16.299999999999997</v>
+      </c>
+      <c r="O12" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>83.4</v>
+        <v>91</v>
       </c>
       <c r="F13">
-        <v>70.5</v>
+        <v>90.7</v>
       </c>
       <c r="G13">
-        <v>58.9</v>
+        <v>81.7</v>
       </c>
       <c r="H13">
-        <v>44.4</v>
+        <v>65.3</v>
       </c>
       <c r="I13">
-        <v>79</v>
+        <v>84.1</v>
       </c>
       <c r="J13">
-        <v>68.900000000000006</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="K13">
-        <v>72.099999999999994</v>
+        <v>63.4</v>
       </c>
       <c r="L13">
-        <v>69.2</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="M13">
-        <v>83.9</v>
+        <v>82.6</v>
       </c>
       <c r="N13">
         <f>M13-L13</f>
-        <v>14.700000000000003</v>
-      </c>
-      <c r="O13" t="s">
-        <v>171</v>
+        <v>3.1999999999999886</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>57</v>
+      </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>84.6</v>
+        <v>88.9</v>
       </c>
       <c r="F14">
-        <v>71</v>
+        <v>88.4</v>
       </c>
       <c r="G14">
-        <v>79.2</v>
+        <v>84.4</v>
       </c>
       <c r="H14">
-        <v>72.8</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="I14">
-        <v>86.9</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="J14">
-        <v>77.8</v>
+        <v>71.3</v>
       </c>
       <c r="K14">
-        <v>81</v>
+        <v>67.7</v>
       </c>
       <c r="L14">
-        <v>79.400000000000006</v>
+        <v>78.5</v>
       </c>
       <c r="M14">
-        <v>95.7</v>
+        <v>77.7</v>
       </c>
       <c r="N14">
         <f>M14-L14</f>
-        <v>16.299999999999997</v>
-      </c>
-      <c r="O14" t="s">
-        <v>174</v>
+        <v>-0.79999999999999716</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>77.599999999999994</v>
+        <v>86.7</v>
       </c>
       <c r="F15">
-        <v>78.8</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="G15">
-        <v>67.099999999999994</v>
+        <v>82.8</v>
       </c>
       <c r="H15">
-        <v>55.9</v>
+        <v>68.2</v>
       </c>
       <c r="I15">
-        <v>80.900000000000006</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="J15">
-        <v>74.400000000000006</v>
+        <v>74.8</v>
       </c>
       <c r="K15">
-        <v>71.599999999999994</v>
+        <v>69.8</v>
       </c>
       <c r="L15">
-        <v>72.7</v>
+        <v>78</v>
       </c>
       <c r="M15">
-        <v>81.599999999999994</v>
+        <v>76.3</v>
       </c>
       <c r="N15">
         <f>M15-L15</f>
-        <v>8.8999999999999915</v>
+        <v>-1.7000000000000028</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>89.6</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="F16">
-        <v>90.4</v>
+        <v>82.7</v>
       </c>
       <c r="G16">
-        <v>80.599999999999994</v>
+        <v>78.7</v>
       </c>
       <c r="H16">
-        <v>69.400000000000006</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="I16">
-        <v>84.9</v>
+        <v>79.3</v>
       </c>
       <c r="J16">
-        <v>67.3</v>
+        <v>79.3</v>
       </c>
       <c r="K16">
-        <v>52.3</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="L16">
-        <v>77.3</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="M16">
-        <v>79.400000000000006</v>
+        <v>76.8</v>
       </c>
       <c r="N16">
         <f>M16-L16</f>
-        <v>2.1000000000000085</v>
+        <v>-0.60000000000000853</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>86.7</v>
+        <v>89.6</v>
       </c>
       <c r="F17">
-        <v>79.599999999999994</v>
+        <v>90.4</v>
       </c>
       <c r="G17">
-        <v>82.8</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="H17">
-        <v>68.2</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="I17">
+        <v>84.9</v>
+      </c>
+      <c r="J17">
+        <v>67.3</v>
+      </c>
+      <c r="K17">
+        <v>52.3</v>
+      </c>
+      <c r="L17">
+        <v>77.3</v>
+      </c>
+      <c r="M17">
         <v>79.400000000000006</v>
-      </c>
-      <c r="J17">
-        <v>74.8</v>
-      </c>
-      <c r="K17">
-        <v>69.8</v>
-      </c>
-      <c r="L17">
-        <v>78</v>
-      </c>
-      <c r="M17">
-        <v>76.3</v>
       </c>
       <c r="N17">
         <f>M17-L17</f>
-        <v>-1.7000000000000028</v>
+        <v>2.1000000000000085</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>73.400000000000006</v>
+        <v>88.6</v>
       </c>
       <c r="F18">
-        <v>80.2</v>
+        <v>91.3</v>
       </c>
       <c r="G18">
-        <v>77.900000000000006</v>
+        <v>85.3</v>
       </c>
       <c r="H18">
-        <v>69.900000000000006</v>
+        <v>91.8</v>
       </c>
       <c r="I18">
-        <v>71.900000000000006</v>
+        <v>60.3</v>
       </c>
       <c r="J18">
-        <v>74.900000000000006</v>
+        <v>71.2</v>
       </c>
       <c r="K18">
-        <v>70.2</v>
+        <v>47.3</v>
       </c>
       <c r="L18">
-        <v>74</v>
+        <v>77.3</v>
       </c>
       <c r="M18">
-        <v>83.4</v>
+        <v>80.7</v>
       </c>
       <c r="N18">
         <f>M18-L18</f>
-        <v>9.4000000000000057</v>
-      </c>
-      <c r="O18" t="s">
-        <v>175</v>
+        <v>3.4000000000000057</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>96.1</v>
+        <v>93.6</v>
       </c>
       <c r="F19">
-        <v>94.1</v>
+        <v>82.8</v>
       </c>
       <c r="G19">
-        <v>93</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="H19">
-        <v>85.4</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="I19">
-        <v>92.5</v>
+        <v>78.3</v>
       </c>
       <c r="J19">
-        <v>93.9</v>
+        <v>75.5</v>
       </c>
       <c r="K19">
-        <v>89.4</v>
+        <v>63.7</v>
       </c>
       <c r="L19">
-        <v>92.3</v>
+        <v>74.5</v>
       </c>
       <c r="M19">
-        <v>91.8</v>
+        <v>76.7</v>
       </c>
       <c r="N19">
         <f>M19-L19</f>
-        <v>-0.5</v>
+        <v>2.2000000000000028</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>91</v>
+        <v>79.3</v>
       </c>
       <c r="F20">
-        <v>90.7</v>
+        <v>84.8</v>
       </c>
       <c r="G20">
-        <v>81.7</v>
+        <v>69.8</v>
       </c>
       <c r="H20">
-        <v>65.3</v>
+        <v>57.1</v>
       </c>
       <c r="I20">
-        <v>84.1</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="J20">
-        <v>74.099999999999994</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="K20">
-        <v>63.4</v>
+        <v>69.7</v>
       </c>
       <c r="L20">
-        <v>79.400000000000006</v>
+        <v>74.3</v>
       </c>
       <c r="M20">
-        <v>82.6</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="N20">
         <f>M20-L20</f>
-        <v>3.1999999999999886</v>
-      </c>
-      <c r="O20"/>
+        <v>5.6000000000000085</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>80.5</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="F21">
-        <v>68.7</v>
+        <v>80.2</v>
       </c>
       <c r="G21">
-        <v>71.5</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="H21">
-        <v>51.9</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="I21">
-        <v>57</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="J21">
-        <v>53.8</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="K21">
-        <v>48.7</v>
+        <v>70.2</v>
       </c>
       <c r="L21">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M21">
-        <v>67.3</v>
+        <v>83.4</v>
       </c>
       <c r="N21">
         <f>M21-L21</f>
-        <v>4.2999999999999972</v>
+        <v>9.4000000000000057</v>
+      </c>
+      <c r="O21" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>57</v>
-      </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C22">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>88.9</v>
+        <v>80.2</v>
       </c>
       <c r="F22">
-        <v>88.4</v>
+        <v>80.3</v>
       </c>
       <c r="G22">
-        <v>84.4</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="H22">
-        <v>66.400000000000006</v>
+        <v>78.3</v>
       </c>
       <c r="I22">
-        <v>77.400000000000006</v>
+        <v>73.2</v>
       </c>
       <c r="J22">
-        <v>71.3</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="K22">
-        <v>67.7</v>
+        <v>60.9</v>
       </c>
       <c r="L22">
-        <v>78.5</v>
+        <v>74</v>
       </c>
       <c r="M22">
-        <v>77.7</v>
+        <v>76.2</v>
       </c>
       <c r="N22">
         <f>M22-L22</f>
-        <v>-0.79999999999999716</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3">
+        <v>2.2000000000000028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
         <v>46</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>84.4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>92.3</v>
-      </c>
-      <c r="G23" s="3">
-        <v>85.7</v>
-      </c>
-      <c r="H23" s="3">
-        <v>52.8</v>
-      </c>
-      <c r="I23" s="3">
-        <v>85.8</v>
-      </c>
-      <c r="J23" s="3">
-        <v>80.3</v>
-      </c>
-      <c r="K23" s="3">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="L23" s="3">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="M23" s="3">
-        <v>82.4</v>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F23">
+        <v>73</v>
+      </c>
+      <c r="G23">
+        <v>68.5</v>
+      </c>
+      <c r="H23">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="I23">
+        <v>76.7</v>
+      </c>
+      <c r="J23">
+        <v>84.9</v>
+      </c>
+      <c r="K23">
+        <v>81.5</v>
+      </c>
+      <c r="L23">
+        <v>73.3</v>
+      </c>
+      <c r="M23">
+        <v>80.599999999999994</v>
       </c>
       <c r="N23">
         <f>M23-L23</f>
-        <v>2.3000000000000114</v>
+        <v>7.2999999999999972</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3902,49 +3895,49 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>38</v>
+        <v>80.8</v>
       </c>
       <c r="F25">
-        <v>32</v>
+        <v>83.3</v>
       </c>
       <c r="G25">
-        <v>16.100000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="H25">
-        <v>11.1</v>
+        <v>61.5</v>
       </c>
       <c r="I25">
-        <v>26.6</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="J25">
-        <v>18.100000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="K25">
-        <v>18.7</v>
+        <v>59.3</v>
       </c>
       <c r="L25">
-        <v>23.9</v>
+        <v>72.7</v>
       </c>
       <c r="M25">
-        <v>29.6</v>
+        <v>75</v>
       </c>
       <c r="N25">
         <f>M25-L25</f>
-        <v>5.7000000000000028</v>
+        <v>2.2999999999999972</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>54</v>
@@ -3953,640 +3946,641 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>75.400000000000006</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="F26">
-        <v>82.7</v>
+        <v>78.8</v>
       </c>
       <c r="G26">
-        <v>78.7</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="H26">
-        <v>69.900000000000006</v>
+        <v>55.9</v>
       </c>
       <c r="I26">
-        <v>79.3</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="J26">
-        <v>79.3</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="K26">
-        <v>77.599999999999994</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="L26">
-        <v>77.400000000000006</v>
+        <v>72.7</v>
       </c>
       <c r="M26">
-        <v>76.8</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="N26">
         <f>M26-L26</f>
-        <v>-0.60000000000000853</v>
+        <v>8.8999999999999915</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>35</v>
+      </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>46.8</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="F27">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="G27">
-        <v>63.4</v>
-      </c>
-      <c r="H27">
-        <v>73.599999999999994</v>
+        <v>53.4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" t="s">
+        <v>109</v>
       </c>
       <c r="I27">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="J27">
-        <v>50.1</v>
-      </c>
-      <c r="K27">
-        <v>28.8</v>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="J27" t="s">
+        <v>109</v>
+      </c>
+      <c r="K27" t="s">
+        <v>109</v>
       </c>
       <c r="L27">
-        <v>52.4</v>
+        <v>72.3</v>
       </c>
       <c r="M27">
-        <v>63.3</v>
+        <v>78.7</v>
       </c>
       <c r="N27">
         <f>M27-L27</f>
-        <v>10.899999999999999</v>
-      </c>
-      <c r="O27" t="s">
-        <v>168</v>
+        <v>6.4000000000000057</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>68.5</v>
+        <v>85.1</v>
       </c>
       <c r="F28">
+        <v>85.2</v>
+      </c>
+      <c r="G28">
+        <v>84.3</v>
+      </c>
+      <c r="H28">
+        <v>77.2</v>
+      </c>
+      <c r="I28">
         <v>68.7</v>
       </c>
-      <c r="G28">
-        <v>63.9</v>
-      </c>
-      <c r="H28">
-        <v>57.8</v>
-      </c>
-      <c r="I28">
-        <v>64.3</v>
-      </c>
       <c r="J28">
-        <v>59.4</v>
+        <v>45.3</v>
       </c>
       <c r="K28">
-        <v>45.1</v>
+        <v>49.1</v>
       </c>
       <c r="L28">
-        <v>61.6</v>
+        <v>71.7</v>
       </c>
       <c r="M28">
-        <v>64.599999999999994</v>
+        <v>77.2</v>
       </c>
       <c r="N28">
         <f>M28-L28</f>
-        <v>2.9999999999999929</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="3">
-        <v>61</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>82.5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>80.3</v>
-      </c>
-      <c r="G29" s="3">
-        <v>74.7</v>
-      </c>
-      <c r="H29" s="3">
-        <v>65.3</v>
-      </c>
-      <c r="I29" s="3">
-        <v>62.6</v>
-      </c>
-      <c r="J29" s="3">
-        <v>60.4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>47.3</v>
-      </c>
-      <c r="L29" s="3">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="M29" s="3">
-        <v>70.099999999999994</v>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>59</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>99.5</v>
+      </c>
+      <c r="F29">
+        <v>99.5</v>
+      </c>
+      <c r="G29">
+        <v>98.3</v>
+      </c>
+      <c r="H29">
+        <v>95.3</v>
+      </c>
+      <c r="I29">
+        <v>71.7</v>
+      </c>
+      <c r="J29">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="K29">
+        <v>0.1</v>
+      </c>
+      <c r="L29">
+        <v>70.8</v>
+      </c>
+      <c r="M29">
+        <v>72.5</v>
       </c>
       <c r="N29">
         <f>M29-L29</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+        <v>1.7000000000000028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C30">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>87.3</v>
+        <v>88.6</v>
       </c>
       <c r="F30">
-        <v>71.5</v>
+        <v>87.2</v>
       </c>
       <c r="G30">
-        <v>69.7</v>
+        <v>67.2</v>
       </c>
       <c r="H30">
-        <v>57.2</v>
+        <v>57.6</v>
       </c>
       <c r="I30">
-        <v>62.7</v>
+        <v>86.9</v>
       </c>
       <c r="J30">
-        <v>47.2</v>
+        <v>44.8</v>
       </c>
       <c r="K30">
-        <v>34.700000000000003</v>
+        <v>48.7</v>
       </c>
       <c r="L30">
-        <v>63.2</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="M30">
-        <v>62.6</v>
+        <v>73.2</v>
       </c>
       <c r="N30">
         <f>M30-L30</f>
-        <v>-0.60000000000000142</v>
-      </c>
-      <c r="O30" s="3"/>
+        <v>3.1000000000000085</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>69.099999999999994</v>
+        <v>83.4</v>
       </c>
       <c r="F31">
-        <v>72.3</v>
+        <v>70.5</v>
       </c>
       <c r="G31">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="H31">
-        <v>27</v>
+        <v>44.4</v>
       </c>
       <c r="I31">
-        <v>64.5</v>
+        <v>79</v>
       </c>
       <c r="J31">
-        <v>30.2</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="K31">
-        <v>26.2</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="L31">
-        <v>50.9</v>
+        <v>69.2</v>
       </c>
       <c r="M31">
-        <v>69.3</v>
+        <v>83.9</v>
       </c>
       <c r="N31">
         <f>M31-L31</f>
-        <v>18.399999999999999</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="O31" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <v>42</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>79.3</v>
-      </c>
-      <c r="F32">
-        <v>84.8</v>
-      </c>
-      <c r="G32">
-        <v>69.8</v>
-      </c>
-      <c r="H32">
-        <v>57.1</v>
-      </c>
-      <c r="I32">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="J32">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="K32">
-        <v>69.7</v>
-      </c>
-      <c r="L32">
-        <v>74.3</v>
-      </c>
-      <c r="M32">
-        <v>79.900000000000006</v>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="3">
+        <v>50</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>68.7</v>
+      </c>
+      <c r="F32" s="3">
+        <v>68.2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>60.3</v>
+      </c>
+      <c r="I32" s="3">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="J32" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="L32" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="M32" s="3">
+        <v>73.599999999999994</v>
       </c>
       <c r="N32">
         <f>M32-L32</f>
-        <v>5.6000000000000085</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <v>56</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>29.5</v>
-      </c>
-      <c r="F33">
-        <v>29.5</v>
-      </c>
-      <c r="G33">
-        <v>25.3</v>
-      </c>
-      <c r="H33">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="I33">
-        <v>14.9</v>
-      </c>
-      <c r="J33">
-        <v>14</v>
-      </c>
-      <c r="K33">
-        <v>17.8</v>
-      </c>
-      <c r="L33">
-        <v>21.8</v>
-      </c>
-      <c r="M33">
-        <v>40.5</v>
+        <v>4.3999999999999915</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="3">
+        <v>61</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="G33" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="H33" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="I33" s="3">
+        <v>62.6</v>
+      </c>
+      <c r="J33" s="3">
+        <v>60.4</v>
+      </c>
+      <c r="K33" s="3">
+        <v>47.3</v>
+      </c>
+      <c r="L33" s="3">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="M33" s="3">
+        <v>70.099999999999994</v>
       </c>
       <c r="N33">
         <f>M33-L33</f>
-        <v>18.7</v>
-      </c>
-      <c r="O33" t="s">
-        <v>173</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>87.2</v>
+        <v>95</v>
       </c>
       <c r="F34">
-        <v>91.5</v>
+        <v>86.6</v>
       </c>
       <c r="G34">
-        <v>82.9</v>
+        <v>60.6</v>
       </c>
       <c r="H34">
-        <v>75.400000000000006</v>
+        <v>38.9</v>
       </c>
       <c r="I34">
-        <v>91.1</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="J34">
-        <v>92.5</v>
+        <v>48.9</v>
       </c>
       <c r="K34">
-        <v>90.4</v>
+        <v>42</v>
       </c>
       <c r="L34">
-        <v>87.3</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="M34">
-        <v>89.3</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="N34">
         <f>M34-L34</f>
-        <v>2</v>
+        <v>4.8000000000000114</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>80.2</v>
+        <v>69.2</v>
       </c>
       <c r="F35">
-        <v>80.3</v>
+        <v>82.3</v>
       </c>
       <c r="G35">
-        <v>75.099999999999994</v>
+        <v>60.4</v>
       </c>
       <c r="H35">
-        <v>78.3</v>
+        <v>51</v>
       </c>
       <c r="I35">
-        <v>73.2</v>
+        <v>61.7</v>
       </c>
       <c r="J35">
-        <v>66.599999999999994</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="K35">
-        <v>60.9</v>
+        <v>52.4</v>
       </c>
       <c r="L35">
-        <v>74</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="M35">
-        <v>76.2</v>
+        <v>62.1</v>
       </c>
       <c r="N35">
         <f>M35-L35</f>
-        <v>2.2000000000000028</v>
+        <v>-2.9999999999999929</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C36">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>58.4</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="F36">
-        <v>60.5</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="G36">
-        <v>55.4</v>
+        <v>53.2</v>
       </c>
       <c r="H36">
-        <v>46.5</v>
+        <v>47.7</v>
       </c>
       <c r="I36">
-        <v>52</v>
+        <v>55.8</v>
       </c>
       <c r="J36">
-        <v>47.9</v>
-      </c>
-      <c r="K36">
-        <v>39.1</v>
+        <v>64.3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>109</v>
       </c>
       <c r="L36">
-        <v>51.9</v>
+        <v>64.2</v>
       </c>
       <c r="M36">
-        <v>57.8</v>
+        <v>74</v>
       </c>
       <c r="N36">
         <f>M36-L36</f>
-        <v>5.8999999999999986</v>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="O36" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C37">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>91.9</v>
+        <v>70.7</v>
       </c>
       <c r="F37">
-        <v>89.3</v>
+        <v>69.2</v>
       </c>
       <c r="G37">
-        <v>87.5</v>
+        <v>63.8</v>
       </c>
       <c r="H37">
-        <v>81.8</v>
+        <v>51</v>
       </c>
       <c r="I37">
-        <v>82.8</v>
+        <v>64.2</v>
       </c>
       <c r="J37">
-        <v>78.2</v>
+        <v>65.3</v>
       </c>
       <c r="K37">
-        <v>62.8</v>
+        <v>58.8</v>
       </c>
       <c r="L37">
-        <v>82.7</v>
+        <v>63.8</v>
       </c>
       <c r="M37">
-        <v>88.3</v>
+        <v>69</v>
       </c>
       <c r="N37">
         <f>M37-L37</f>
-        <v>5.5999999999999943</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.2000000000000028</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C38">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>93.4</v>
+        <v>87.3</v>
       </c>
       <c r="F38">
-        <v>92.5</v>
+        <v>71.5</v>
       </c>
       <c r="G38">
-        <v>81.599999999999994</v>
+        <v>69.7</v>
       </c>
       <c r="H38">
-        <v>49.3</v>
+        <v>57.2</v>
       </c>
       <c r="I38">
-        <v>79.599999999999994</v>
+        <v>62.7</v>
       </c>
       <c r="J38">
-        <v>85.3</v>
+        <v>47.2</v>
       </c>
       <c r="K38">
-        <v>83.5</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="L38">
-        <v>81.599999999999994</v>
+        <v>63.2</v>
       </c>
       <c r="M38">
-        <v>84.1</v>
+        <v>62.6</v>
       </c>
       <c r="N38">
         <f>M38-L38</f>
-        <v>2.5</v>
-      </c>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C39">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>88.6</v>
+        <v>80.5</v>
       </c>
       <c r="F39">
-        <v>91.3</v>
+        <v>68.7</v>
       </c>
       <c r="G39">
-        <v>85.3</v>
+        <v>71.5</v>
       </c>
       <c r="H39">
-        <v>91.8</v>
+        <v>51.9</v>
       </c>
       <c r="I39">
-        <v>60.3</v>
+        <v>57</v>
       </c>
       <c r="J39">
-        <v>71.2</v>
+        <v>53.8</v>
       </c>
       <c r="K39">
-        <v>47.3</v>
+        <v>48.7</v>
       </c>
       <c r="L39">
-        <v>77.3</v>
+        <v>63</v>
       </c>
       <c r="M39">
-        <v>80.7</v>
+        <v>67.3</v>
       </c>
       <c r="N39">
         <f>M39-L39</f>
-        <v>3.4000000000000057</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>48</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>83.4</v>
-      </c>
-      <c r="F40">
-        <v>82.8</v>
-      </c>
-      <c r="G40">
-        <v>85</v>
-      </c>
-      <c r="H40">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="I40">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="J40">
-        <v>86.3</v>
-      </c>
-      <c r="K40">
-        <v>80.8</v>
-      </c>
-      <c r="L40">
-        <v>82.9</v>
-      </c>
-      <c r="M40">
-        <v>86.6</v>
+        <v>4.2999999999999972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3">
+        <v>50</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>67.8</v>
+      </c>
+      <c r="F40" s="3">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G40" s="3">
+        <v>51.7</v>
+      </c>
+      <c r="H40" s="3">
+        <v>50.4</v>
+      </c>
+      <c r="I40" s="3">
+        <v>64</v>
+      </c>
+      <c r="J40" s="3">
+        <v>66.2</v>
+      </c>
+      <c r="K40" s="3">
+        <v>60</v>
+      </c>
+      <c r="L40" s="3">
+        <v>61.8</v>
+      </c>
+      <c r="M40" s="3">
+        <v>68.400000000000006</v>
       </c>
       <c r="N40">
         <f>M40-L40</f>
-        <v>3.6999999999999886</v>
+        <v>6.6000000000000085</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>46</v>
@@ -4595,482 +4589,487 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>66.400000000000006</v>
+        <v>68.5</v>
       </c>
       <c r="F41">
-        <v>73</v>
+        <v>68.7</v>
       </c>
       <c r="G41">
-        <v>68.5</v>
+        <v>63.9</v>
       </c>
       <c r="H41">
-        <v>65.599999999999994</v>
+        <v>57.8</v>
       </c>
       <c r="I41">
-        <v>76.7</v>
+        <v>64.3</v>
       </c>
       <c r="J41">
-        <v>84.9</v>
+        <v>59.4</v>
       </c>
       <c r="K41">
-        <v>81.5</v>
+        <v>45.1</v>
       </c>
       <c r="L41">
-        <v>73.3</v>
+        <v>61.6</v>
       </c>
       <c r="M41">
-        <v>80.599999999999994</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="N41">
         <f>M41-L41</f>
-        <v>7.2999999999999972</v>
+        <v>2.9999999999999929</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42"/>
+      <c r="A42">
+        <v>55</v>
+      </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>69.2</v>
+        <v>75.3</v>
       </c>
       <c r="F42">
-        <v>82.3</v>
+        <v>69.3</v>
       </c>
       <c r="G42">
-        <v>60.4</v>
+        <v>60.8</v>
       </c>
       <c r="H42">
-        <v>51</v>
+        <v>48.4</v>
       </c>
       <c r="I42">
-        <v>61.7</v>
+        <v>64.2</v>
       </c>
       <c r="J42">
-        <v>76.599999999999994</v>
+        <v>57.2</v>
       </c>
       <c r="K42">
-        <v>52.4</v>
+        <v>43.5</v>
       </c>
       <c r="L42">
-        <v>65.099999999999994</v>
+        <v>60.8</v>
       </c>
       <c r="M42">
-        <v>62.1</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="N42">
         <f>M42-L42</f>
-        <v>-2.9999999999999929</v>
+        <v>3.2999999999999972</v>
       </c>
       <c r="O42"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>35</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43">
+    <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>59</v>
       </c>
-      <c r="D43">
+      <c r="B43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3">
+        <v>61</v>
+      </c>
+      <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="F43">
-        <v>53.4</v>
-      </c>
-      <c r="G43" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" t="s">
-        <v>109</v>
-      </c>
-      <c r="I43">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="J43" t="s">
-        <v>109</v>
-      </c>
-      <c r="K43" t="s">
-        <v>109</v>
-      </c>
-      <c r="L43">
-        <v>72.3</v>
-      </c>
-      <c r="M43">
-        <v>78.7</v>
-      </c>
-      <c r="N43">
+      <c r="E43" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="F43" s="3">
+        <v>65</v>
+      </c>
+      <c r="G43" s="3">
+        <v>45.1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>40</v>
+      </c>
+      <c r="I43" s="3">
+        <v>63.5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>49.9</v>
+      </c>
+      <c r="K43" s="3">
+        <v>41.6</v>
+      </c>
+      <c r="L43" s="3">
+        <v>56</v>
+      </c>
+      <c r="M43" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="N43" s="3">
         <f>M43-L43</f>
-        <v>6.4000000000000057</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>59</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="3">
-        <v>61</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="F44" s="3">
-        <v>65</v>
-      </c>
-      <c r="G44" s="3">
-        <v>45.1</v>
-      </c>
-      <c r="H44" s="3">
+        <v>11.099999999999994</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>46.8</v>
+      </c>
+      <c r="F44">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="G44">
+        <v>63.4</v>
+      </c>
+      <c r="H44">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I44">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J44">
+        <v>50.1</v>
+      </c>
+      <c r="K44">
+        <v>28.8</v>
+      </c>
+      <c r="L44">
+        <v>52.4</v>
+      </c>
+      <c r="M44">
+        <v>63.3</v>
+      </c>
+      <c r="N44">
+        <f>M44-L44</f>
+        <v>10.899999999999999</v>
+      </c>
+      <c r="O44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45">
         <v>40</v>
       </c>
-      <c r="I44" s="3">
-        <v>63.5</v>
-      </c>
-      <c r="J44" s="3">
-        <v>49.9</v>
-      </c>
-      <c r="K44" s="3">
-        <v>41.6</v>
-      </c>
-      <c r="L44" s="3">
-        <v>56</v>
-      </c>
-      <c r="M44" s="3">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="N44" s="3">
-        <f>M44-L44</f>
-        <v>11.099999999999994</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="3">
-        <v>50</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3">
-        <v>68.7</v>
-      </c>
-      <c r="F45" s="3">
-        <v>68.2</v>
-      </c>
-      <c r="G45" s="3">
-        <v>66.5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>60.3</v>
-      </c>
-      <c r="I45" s="3">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="J45" s="3">
-        <v>77.3</v>
-      </c>
-      <c r="K45" s="3">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="L45" s="3">
-        <v>69.2</v>
-      </c>
-      <c r="M45" s="3">
-        <v>73.599999999999994</v>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>58.4</v>
+      </c>
+      <c r="F45">
+        <v>60.5</v>
+      </c>
+      <c r="G45">
+        <v>55.4</v>
+      </c>
+      <c r="H45">
+        <v>46.5</v>
+      </c>
+      <c r="I45">
+        <v>52</v>
+      </c>
+      <c r="J45">
+        <v>47.9</v>
+      </c>
+      <c r="K45">
+        <v>39.1</v>
+      </c>
+      <c r="L45">
+        <v>51.9</v>
+      </c>
+      <c r="M45">
+        <v>57.8</v>
       </c>
       <c r="N45">
         <f>M45-L45</f>
-        <v>4.3999999999999915</v>
+        <v>5.8999999999999986</v>
       </c>
       <c r="O45"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C46">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>88.6</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="F46">
-        <v>87.2</v>
+        <v>72.3</v>
       </c>
       <c r="G46">
-        <v>67.2</v>
+        <v>58.3</v>
       </c>
       <c r="H46">
-        <v>57.6</v>
+        <v>27</v>
       </c>
       <c r="I46">
-        <v>86.9</v>
+        <v>64.5</v>
       </c>
       <c r="J46">
-        <v>44.8</v>
+        <v>30.2</v>
       </c>
       <c r="K46">
-        <v>48.7</v>
+        <v>26.2</v>
       </c>
       <c r="L46">
-        <v>70.099999999999994</v>
+        <v>50.9</v>
       </c>
       <c r="M46">
-        <v>73.2</v>
+        <v>69.3</v>
       </c>
       <c r="N46">
         <f>M46-L46</f>
-        <v>3.1000000000000085</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C47">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>70.7</v>
+        <v>70.5</v>
       </c>
       <c r="F47">
-        <v>69.2</v>
+        <v>62.4</v>
       </c>
       <c r="G47">
-        <v>63.8</v>
+        <v>46.7</v>
       </c>
       <c r="H47">
-        <v>51</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I47">
-        <v>64.2</v>
+        <v>45.7</v>
       </c>
       <c r="J47">
-        <v>65.3</v>
+        <v>39.4</v>
       </c>
       <c r="K47">
-        <v>58.8</v>
+        <v>43.7</v>
       </c>
       <c r="L47">
-        <v>63.8</v>
+        <v>50.7</v>
       </c>
       <c r="M47">
-        <v>69</v>
+        <v>59.5</v>
       </c>
       <c r="N47">
         <f>M47-L47</f>
-        <v>5.2000000000000028</v>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>87.4</v>
+        <v>60.5</v>
       </c>
       <c r="F48">
-        <v>82.5</v>
+        <v>53.8</v>
       </c>
       <c r="G48">
-        <v>74.400000000000006</v>
+        <v>31.8</v>
       </c>
       <c r="H48">
-        <v>78.2</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="I48">
-        <v>80.3</v>
+        <v>54.7</v>
       </c>
       <c r="J48">
-        <v>68.900000000000006</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="K48">
-        <v>84.9</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="L48">
-        <v>80.099999999999994</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="M48">
-        <v>80.900000000000006</v>
+        <v>48.2</v>
       </c>
       <c r="N48">
         <f>M48-L48</f>
-        <v>0.80000000000001137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>55</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>75.3</v>
+        <v>34.6</v>
       </c>
       <c r="F49">
-        <v>69.3</v>
+        <v>37.4</v>
       </c>
       <c r="G49">
-        <v>60.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H49">
-        <v>48.4</v>
+        <v>12.9</v>
       </c>
       <c r="I49">
-        <v>64.2</v>
+        <v>25.2</v>
       </c>
       <c r="J49">
-        <v>57.2</v>
+        <v>26.7</v>
       </c>
       <c r="K49">
-        <v>43.5</v>
+        <v>14.4</v>
       </c>
       <c r="L49">
-        <v>60.8</v>
+        <v>24.9</v>
       </c>
       <c r="M49">
-        <v>64.099999999999994</v>
+        <v>45.2</v>
       </c>
       <c r="N49">
         <f>M49-L49</f>
-        <v>3.2999999999999972</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+        <v>20.300000000000004</v>
+      </c>
+      <c r="O49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70.5</v>
+        <v>38</v>
       </c>
       <c r="F50">
-        <v>62.4</v>
+        <v>32</v>
       </c>
       <c r="G50">
-        <v>46.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H50">
-        <v>36.200000000000003</v>
+        <v>11.1</v>
       </c>
       <c r="I50">
-        <v>45.7</v>
+        <v>26.6</v>
       </c>
       <c r="J50">
-        <v>39.4</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K50">
-        <v>43.7</v>
+        <v>18.7</v>
       </c>
       <c r="L50">
-        <v>50.7</v>
+        <v>23.9</v>
       </c>
       <c r="M50">
-        <v>59.5</v>
+        <v>29.6</v>
       </c>
       <c r="N50">
         <f>M50-L50</f>
-        <v>8.7999999999999972</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.7000000000000028</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>80.099999999999994</v>
+        <v>29.5</v>
       </c>
       <c r="F51">
-        <v>75.900000000000006</v>
+        <v>29.5</v>
       </c>
       <c r="G51">
-        <v>53.2</v>
+        <v>25.3</v>
       </c>
       <c r="H51">
-        <v>47.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="I51">
-        <v>55.8</v>
+        <v>14.9</v>
       </c>
       <c r="J51">
-        <v>64.3</v>
-      </c>
-      <c r="K51" t="s">
-        <v>109</v>
+        <v>14</v>
+      </c>
+      <c r="K51">
+        <v>17.8</v>
       </c>
       <c r="L51">
-        <v>64.2</v>
+        <v>21.8</v>
       </c>
       <c r="M51">
-        <v>74</v>
+        <v>40.5</v>
       </c>
       <c r="N51">
         <f>M51-L51</f>
-        <v>9.7999999999999972</v>
+        <v>18.7</v>
       </c>
       <c r="O51" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:O51">
-    <sortCondition ref="B2:B51"/>
-    <sortCondition ref="L2:L51"/>
+    <sortCondition descending="1" ref="L2:L51"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
